--- a/iTreeWeb/iTreeweb组相关文档/项目文档/iTree网站需求/iTree需求更改说明.xlsx
+++ b/iTreeWeb/iTreeweb组相关文档/项目文档/iTree网站需求/iTree需求更改说明.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>iTree网站需求分析报告更改说明</t>
   </si>
@@ -43,6 +43,14 @@
   <si>
     <t>进行了较为详细的修改，更加正规。区分前后台模块。</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>iTree网站需求分析报告4.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行了较为大的修改。主要对模块的划分。软件总体结构图做了改进。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -117,14 +125,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -138,6 +140,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -447,372 +458,378 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="59" style="3" customWidth="1"/>
-    <col min="4" max="256" width="9" style="3"/>
-    <col min="257" max="257" width="11.5" style="3" customWidth="1"/>
-    <col min="258" max="258" width="26.875" style="3" customWidth="1"/>
-    <col min="259" max="259" width="59" style="3" customWidth="1"/>
-    <col min="260" max="512" width="9" style="3"/>
-    <col min="513" max="513" width="11.5" style="3" customWidth="1"/>
-    <col min="514" max="514" width="26.875" style="3" customWidth="1"/>
-    <col min="515" max="515" width="59" style="3" customWidth="1"/>
-    <col min="516" max="768" width="9" style="3"/>
-    <col min="769" max="769" width="11.5" style="3" customWidth="1"/>
-    <col min="770" max="770" width="26.875" style="3" customWidth="1"/>
-    <col min="771" max="771" width="59" style="3" customWidth="1"/>
-    <col min="772" max="1024" width="9" style="3"/>
-    <col min="1025" max="1025" width="11.5" style="3" customWidth="1"/>
-    <col min="1026" max="1026" width="26.875" style="3" customWidth="1"/>
-    <col min="1027" max="1027" width="59" style="3" customWidth="1"/>
-    <col min="1028" max="1280" width="9" style="3"/>
-    <col min="1281" max="1281" width="11.5" style="3" customWidth="1"/>
-    <col min="1282" max="1282" width="26.875" style="3" customWidth="1"/>
-    <col min="1283" max="1283" width="59" style="3" customWidth="1"/>
-    <col min="1284" max="1536" width="9" style="3"/>
-    <col min="1537" max="1537" width="11.5" style="3" customWidth="1"/>
-    <col min="1538" max="1538" width="26.875" style="3" customWidth="1"/>
-    <col min="1539" max="1539" width="59" style="3" customWidth="1"/>
-    <col min="1540" max="1792" width="9" style="3"/>
-    <col min="1793" max="1793" width="11.5" style="3" customWidth="1"/>
-    <col min="1794" max="1794" width="26.875" style="3" customWidth="1"/>
-    <col min="1795" max="1795" width="59" style="3" customWidth="1"/>
-    <col min="1796" max="2048" width="9" style="3"/>
-    <col min="2049" max="2049" width="11.5" style="3" customWidth="1"/>
-    <col min="2050" max="2050" width="26.875" style="3" customWidth="1"/>
-    <col min="2051" max="2051" width="59" style="3" customWidth="1"/>
-    <col min="2052" max="2304" width="9" style="3"/>
-    <col min="2305" max="2305" width="11.5" style="3" customWidth="1"/>
-    <col min="2306" max="2306" width="26.875" style="3" customWidth="1"/>
-    <col min="2307" max="2307" width="59" style="3" customWidth="1"/>
-    <col min="2308" max="2560" width="9" style="3"/>
-    <col min="2561" max="2561" width="11.5" style="3" customWidth="1"/>
-    <col min="2562" max="2562" width="26.875" style="3" customWidth="1"/>
-    <col min="2563" max="2563" width="59" style="3" customWidth="1"/>
-    <col min="2564" max="2816" width="9" style="3"/>
-    <col min="2817" max="2817" width="11.5" style="3" customWidth="1"/>
-    <col min="2818" max="2818" width="26.875" style="3" customWidth="1"/>
-    <col min="2819" max="2819" width="59" style="3" customWidth="1"/>
-    <col min="2820" max="3072" width="9" style="3"/>
-    <col min="3073" max="3073" width="11.5" style="3" customWidth="1"/>
-    <col min="3074" max="3074" width="26.875" style="3" customWidth="1"/>
-    <col min="3075" max="3075" width="59" style="3" customWidth="1"/>
-    <col min="3076" max="3328" width="9" style="3"/>
-    <col min="3329" max="3329" width="11.5" style="3" customWidth="1"/>
-    <col min="3330" max="3330" width="26.875" style="3" customWidth="1"/>
-    <col min="3331" max="3331" width="59" style="3" customWidth="1"/>
-    <col min="3332" max="3584" width="9" style="3"/>
-    <col min="3585" max="3585" width="11.5" style="3" customWidth="1"/>
-    <col min="3586" max="3586" width="26.875" style="3" customWidth="1"/>
-    <col min="3587" max="3587" width="59" style="3" customWidth="1"/>
-    <col min="3588" max="3840" width="9" style="3"/>
-    <col min="3841" max="3841" width="11.5" style="3" customWidth="1"/>
-    <col min="3842" max="3842" width="26.875" style="3" customWidth="1"/>
-    <col min="3843" max="3843" width="59" style="3" customWidth="1"/>
-    <col min="3844" max="4096" width="9" style="3"/>
-    <col min="4097" max="4097" width="11.5" style="3" customWidth="1"/>
-    <col min="4098" max="4098" width="26.875" style="3" customWidth="1"/>
-    <col min="4099" max="4099" width="59" style="3" customWidth="1"/>
-    <col min="4100" max="4352" width="9" style="3"/>
-    <col min="4353" max="4353" width="11.5" style="3" customWidth="1"/>
-    <col min="4354" max="4354" width="26.875" style="3" customWidth="1"/>
-    <col min="4355" max="4355" width="59" style="3" customWidth="1"/>
-    <col min="4356" max="4608" width="9" style="3"/>
-    <col min="4609" max="4609" width="11.5" style="3" customWidth="1"/>
-    <col min="4610" max="4610" width="26.875" style="3" customWidth="1"/>
-    <col min="4611" max="4611" width="59" style="3" customWidth="1"/>
-    <col min="4612" max="4864" width="9" style="3"/>
-    <col min="4865" max="4865" width="11.5" style="3" customWidth="1"/>
-    <col min="4866" max="4866" width="26.875" style="3" customWidth="1"/>
-    <col min="4867" max="4867" width="59" style="3" customWidth="1"/>
-    <col min="4868" max="5120" width="9" style="3"/>
-    <col min="5121" max="5121" width="11.5" style="3" customWidth="1"/>
-    <col min="5122" max="5122" width="26.875" style="3" customWidth="1"/>
-    <col min="5123" max="5123" width="59" style="3" customWidth="1"/>
-    <col min="5124" max="5376" width="9" style="3"/>
-    <col min="5377" max="5377" width="11.5" style="3" customWidth="1"/>
-    <col min="5378" max="5378" width="26.875" style="3" customWidth="1"/>
-    <col min="5379" max="5379" width="59" style="3" customWidth="1"/>
-    <col min="5380" max="5632" width="9" style="3"/>
-    <col min="5633" max="5633" width="11.5" style="3" customWidth="1"/>
-    <col min="5634" max="5634" width="26.875" style="3" customWidth="1"/>
-    <col min="5635" max="5635" width="59" style="3" customWidth="1"/>
-    <col min="5636" max="5888" width="9" style="3"/>
-    <col min="5889" max="5889" width="11.5" style="3" customWidth="1"/>
-    <col min="5890" max="5890" width="26.875" style="3" customWidth="1"/>
-    <col min="5891" max="5891" width="59" style="3" customWidth="1"/>
-    <col min="5892" max="6144" width="9" style="3"/>
-    <col min="6145" max="6145" width="11.5" style="3" customWidth="1"/>
-    <col min="6146" max="6146" width="26.875" style="3" customWidth="1"/>
-    <col min="6147" max="6147" width="59" style="3" customWidth="1"/>
-    <col min="6148" max="6400" width="9" style="3"/>
-    <col min="6401" max="6401" width="11.5" style="3" customWidth="1"/>
-    <col min="6402" max="6402" width="26.875" style="3" customWidth="1"/>
-    <col min="6403" max="6403" width="59" style="3" customWidth="1"/>
-    <col min="6404" max="6656" width="9" style="3"/>
-    <col min="6657" max="6657" width="11.5" style="3" customWidth="1"/>
-    <col min="6658" max="6658" width="26.875" style="3" customWidth="1"/>
-    <col min="6659" max="6659" width="59" style="3" customWidth="1"/>
-    <col min="6660" max="6912" width="9" style="3"/>
-    <col min="6913" max="6913" width="11.5" style="3" customWidth="1"/>
-    <col min="6914" max="6914" width="26.875" style="3" customWidth="1"/>
-    <col min="6915" max="6915" width="59" style="3" customWidth="1"/>
-    <col min="6916" max="7168" width="9" style="3"/>
-    <col min="7169" max="7169" width="11.5" style="3" customWidth="1"/>
-    <col min="7170" max="7170" width="26.875" style="3" customWidth="1"/>
-    <col min="7171" max="7171" width="59" style="3" customWidth="1"/>
-    <col min="7172" max="7424" width="9" style="3"/>
-    <col min="7425" max="7425" width="11.5" style="3" customWidth="1"/>
-    <col min="7426" max="7426" width="26.875" style="3" customWidth="1"/>
-    <col min="7427" max="7427" width="59" style="3" customWidth="1"/>
-    <col min="7428" max="7680" width="9" style="3"/>
-    <col min="7681" max="7681" width="11.5" style="3" customWidth="1"/>
-    <col min="7682" max="7682" width="26.875" style="3" customWidth="1"/>
-    <col min="7683" max="7683" width="59" style="3" customWidth="1"/>
-    <col min="7684" max="7936" width="9" style="3"/>
-    <col min="7937" max="7937" width="11.5" style="3" customWidth="1"/>
-    <col min="7938" max="7938" width="26.875" style="3" customWidth="1"/>
-    <col min="7939" max="7939" width="59" style="3" customWidth="1"/>
-    <col min="7940" max="8192" width="9" style="3"/>
-    <col min="8193" max="8193" width="11.5" style="3" customWidth="1"/>
-    <col min="8194" max="8194" width="26.875" style="3" customWidth="1"/>
-    <col min="8195" max="8195" width="59" style="3" customWidth="1"/>
-    <col min="8196" max="8448" width="9" style="3"/>
-    <col min="8449" max="8449" width="11.5" style="3" customWidth="1"/>
-    <col min="8450" max="8450" width="26.875" style="3" customWidth="1"/>
-    <col min="8451" max="8451" width="59" style="3" customWidth="1"/>
-    <col min="8452" max="8704" width="9" style="3"/>
-    <col min="8705" max="8705" width="11.5" style="3" customWidth="1"/>
-    <col min="8706" max="8706" width="26.875" style="3" customWidth="1"/>
-    <col min="8707" max="8707" width="59" style="3" customWidth="1"/>
-    <col min="8708" max="8960" width="9" style="3"/>
-    <col min="8961" max="8961" width="11.5" style="3" customWidth="1"/>
-    <col min="8962" max="8962" width="26.875" style="3" customWidth="1"/>
-    <col min="8963" max="8963" width="59" style="3" customWidth="1"/>
-    <col min="8964" max="9216" width="9" style="3"/>
-    <col min="9217" max="9217" width="11.5" style="3" customWidth="1"/>
-    <col min="9218" max="9218" width="26.875" style="3" customWidth="1"/>
-    <col min="9219" max="9219" width="59" style="3" customWidth="1"/>
-    <col min="9220" max="9472" width="9" style="3"/>
-    <col min="9473" max="9473" width="11.5" style="3" customWidth="1"/>
-    <col min="9474" max="9474" width="26.875" style="3" customWidth="1"/>
-    <col min="9475" max="9475" width="59" style="3" customWidth="1"/>
-    <col min="9476" max="9728" width="9" style="3"/>
-    <col min="9729" max="9729" width="11.5" style="3" customWidth="1"/>
-    <col min="9730" max="9730" width="26.875" style="3" customWidth="1"/>
-    <col min="9731" max="9731" width="59" style="3" customWidth="1"/>
-    <col min="9732" max="9984" width="9" style="3"/>
-    <col min="9985" max="9985" width="11.5" style="3" customWidth="1"/>
-    <col min="9986" max="9986" width="26.875" style="3" customWidth="1"/>
-    <col min="9987" max="9987" width="59" style="3" customWidth="1"/>
-    <col min="9988" max="10240" width="9" style="3"/>
-    <col min="10241" max="10241" width="11.5" style="3" customWidth="1"/>
-    <col min="10242" max="10242" width="26.875" style="3" customWidth="1"/>
-    <col min="10243" max="10243" width="59" style="3" customWidth="1"/>
-    <col min="10244" max="10496" width="9" style="3"/>
-    <col min="10497" max="10497" width="11.5" style="3" customWidth="1"/>
-    <col min="10498" max="10498" width="26.875" style="3" customWidth="1"/>
-    <col min="10499" max="10499" width="59" style="3" customWidth="1"/>
-    <col min="10500" max="10752" width="9" style="3"/>
-    <col min="10753" max="10753" width="11.5" style="3" customWidth="1"/>
-    <col min="10754" max="10754" width="26.875" style="3" customWidth="1"/>
-    <col min="10755" max="10755" width="59" style="3" customWidth="1"/>
-    <col min="10756" max="11008" width="9" style="3"/>
-    <col min="11009" max="11009" width="11.5" style="3" customWidth="1"/>
-    <col min="11010" max="11010" width="26.875" style="3" customWidth="1"/>
-    <col min="11011" max="11011" width="59" style="3" customWidth="1"/>
-    <col min="11012" max="11264" width="9" style="3"/>
-    <col min="11265" max="11265" width="11.5" style="3" customWidth="1"/>
-    <col min="11266" max="11266" width="26.875" style="3" customWidth="1"/>
-    <col min="11267" max="11267" width="59" style="3" customWidth="1"/>
-    <col min="11268" max="11520" width="9" style="3"/>
-    <col min="11521" max="11521" width="11.5" style="3" customWidth="1"/>
-    <col min="11522" max="11522" width="26.875" style="3" customWidth="1"/>
-    <col min="11523" max="11523" width="59" style="3" customWidth="1"/>
-    <col min="11524" max="11776" width="9" style="3"/>
-    <col min="11777" max="11777" width="11.5" style="3" customWidth="1"/>
-    <col min="11778" max="11778" width="26.875" style="3" customWidth="1"/>
-    <col min="11779" max="11779" width="59" style="3" customWidth="1"/>
-    <col min="11780" max="12032" width="9" style="3"/>
-    <col min="12033" max="12033" width="11.5" style="3" customWidth="1"/>
-    <col min="12034" max="12034" width="26.875" style="3" customWidth="1"/>
-    <col min="12035" max="12035" width="59" style="3" customWidth="1"/>
-    <col min="12036" max="12288" width="9" style="3"/>
-    <col min="12289" max="12289" width="11.5" style="3" customWidth="1"/>
-    <col min="12290" max="12290" width="26.875" style="3" customWidth="1"/>
-    <col min="12291" max="12291" width="59" style="3" customWidth="1"/>
-    <col min="12292" max="12544" width="9" style="3"/>
-    <col min="12545" max="12545" width="11.5" style="3" customWidth="1"/>
-    <col min="12546" max="12546" width="26.875" style="3" customWidth="1"/>
-    <col min="12547" max="12547" width="59" style="3" customWidth="1"/>
-    <col min="12548" max="12800" width="9" style="3"/>
-    <col min="12801" max="12801" width="11.5" style="3" customWidth="1"/>
-    <col min="12802" max="12802" width="26.875" style="3" customWidth="1"/>
-    <col min="12803" max="12803" width="59" style="3" customWidth="1"/>
-    <col min="12804" max="13056" width="9" style="3"/>
-    <col min="13057" max="13057" width="11.5" style="3" customWidth="1"/>
-    <col min="13058" max="13058" width="26.875" style="3" customWidth="1"/>
-    <col min="13059" max="13059" width="59" style="3" customWidth="1"/>
-    <col min="13060" max="13312" width="9" style="3"/>
-    <col min="13313" max="13313" width="11.5" style="3" customWidth="1"/>
-    <col min="13314" max="13314" width="26.875" style="3" customWidth="1"/>
-    <col min="13315" max="13315" width="59" style="3" customWidth="1"/>
-    <col min="13316" max="13568" width="9" style="3"/>
-    <col min="13569" max="13569" width="11.5" style="3" customWidth="1"/>
-    <col min="13570" max="13570" width="26.875" style="3" customWidth="1"/>
-    <col min="13571" max="13571" width="59" style="3" customWidth="1"/>
-    <col min="13572" max="13824" width="9" style="3"/>
-    <col min="13825" max="13825" width="11.5" style="3" customWidth="1"/>
-    <col min="13826" max="13826" width="26.875" style="3" customWidth="1"/>
-    <col min="13827" max="13827" width="59" style="3" customWidth="1"/>
-    <col min="13828" max="14080" width="9" style="3"/>
-    <col min="14081" max="14081" width="11.5" style="3" customWidth="1"/>
-    <col min="14082" max="14082" width="26.875" style="3" customWidth="1"/>
-    <col min="14083" max="14083" width="59" style="3" customWidth="1"/>
-    <col min="14084" max="14336" width="9" style="3"/>
-    <col min="14337" max="14337" width="11.5" style="3" customWidth="1"/>
-    <col min="14338" max="14338" width="26.875" style="3" customWidth="1"/>
-    <col min="14339" max="14339" width="59" style="3" customWidth="1"/>
-    <col min="14340" max="14592" width="9" style="3"/>
-    <col min="14593" max="14593" width="11.5" style="3" customWidth="1"/>
-    <col min="14594" max="14594" width="26.875" style="3" customWidth="1"/>
-    <col min="14595" max="14595" width="59" style="3" customWidth="1"/>
-    <col min="14596" max="14848" width="9" style="3"/>
-    <col min="14849" max="14849" width="11.5" style="3" customWidth="1"/>
-    <col min="14850" max="14850" width="26.875" style="3" customWidth="1"/>
-    <col min="14851" max="14851" width="59" style="3" customWidth="1"/>
-    <col min="14852" max="15104" width="9" style="3"/>
-    <col min="15105" max="15105" width="11.5" style="3" customWidth="1"/>
-    <col min="15106" max="15106" width="26.875" style="3" customWidth="1"/>
-    <col min="15107" max="15107" width="59" style="3" customWidth="1"/>
-    <col min="15108" max="15360" width="9" style="3"/>
-    <col min="15361" max="15361" width="11.5" style="3" customWidth="1"/>
-    <col min="15362" max="15362" width="26.875" style="3" customWidth="1"/>
-    <col min="15363" max="15363" width="59" style="3" customWidth="1"/>
-    <col min="15364" max="15616" width="9" style="3"/>
-    <col min="15617" max="15617" width="11.5" style="3" customWidth="1"/>
-    <col min="15618" max="15618" width="26.875" style="3" customWidth="1"/>
-    <col min="15619" max="15619" width="59" style="3" customWidth="1"/>
-    <col min="15620" max="15872" width="9" style="3"/>
-    <col min="15873" max="15873" width="11.5" style="3" customWidth="1"/>
-    <col min="15874" max="15874" width="26.875" style="3" customWidth="1"/>
-    <col min="15875" max="15875" width="59" style="3" customWidth="1"/>
-    <col min="15876" max="16128" width="9" style="3"/>
-    <col min="16129" max="16129" width="11.5" style="3" customWidth="1"/>
-    <col min="16130" max="16130" width="26.875" style="3" customWidth="1"/>
-    <col min="16131" max="16131" width="59" style="3" customWidth="1"/>
-    <col min="16132" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="59" style="1" customWidth="1"/>
+    <col min="4" max="256" width="9" style="1"/>
+    <col min="257" max="257" width="11.5" style="1" customWidth="1"/>
+    <col min="258" max="258" width="26.875" style="1" customWidth="1"/>
+    <col min="259" max="259" width="59" style="1" customWidth="1"/>
+    <col min="260" max="512" width="9" style="1"/>
+    <col min="513" max="513" width="11.5" style="1" customWidth="1"/>
+    <col min="514" max="514" width="26.875" style="1" customWidth="1"/>
+    <col min="515" max="515" width="59" style="1" customWidth="1"/>
+    <col min="516" max="768" width="9" style="1"/>
+    <col min="769" max="769" width="11.5" style="1" customWidth="1"/>
+    <col min="770" max="770" width="26.875" style="1" customWidth="1"/>
+    <col min="771" max="771" width="59" style="1" customWidth="1"/>
+    <col min="772" max="1024" width="9" style="1"/>
+    <col min="1025" max="1025" width="11.5" style="1" customWidth="1"/>
+    <col min="1026" max="1026" width="26.875" style="1" customWidth="1"/>
+    <col min="1027" max="1027" width="59" style="1" customWidth="1"/>
+    <col min="1028" max="1280" width="9" style="1"/>
+    <col min="1281" max="1281" width="11.5" style="1" customWidth="1"/>
+    <col min="1282" max="1282" width="26.875" style="1" customWidth="1"/>
+    <col min="1283" max="1283" width="59" style="1" customWidth="1"/>
+    <col min="1284" max="1536" width="9" style="1"/>
+    <col min="1537" max="1537" width="11.5" style="1" customWidth="1"/>
+    <col min="1538" max="1538" width="26.875" style="1" customWidth="1"/>
+    <col min="1539" max="1539" width="59" style="1" customWidth="1"/>
+    <col min="1540" max="1792" width="9" style="1"/>
+    <col min="1793" max="1793" width="11.5" style="1" customWidth="1"/>
+    <col min="1794" max="1794" width="26.875" style="1" customWidth="1"/>
+    <col min="1795" max="1795" width="59" style="1" customWidth="1"/>
+    <col min="1796" max="2048" width="9" style="1"/>
+    <col min="2049" max="2049" width="11.5" style="1" customWidth="1"/>
+    <col min="2050" max="2050" width="26.875" style="1" customWidth="1"/>
+    <col min="2051" max="2051" width="59" style="1" customWidth="1"/>
+    <col min="2052" max="2304" width="9" style="1"/>
+    <col min="2305" max="2305" width="11.5" style="1" customWidth="1"/>
+    <col min="2306" max="2306" width="26.875" style="1" customWidth="1"/>
+    <col min="2307" max="2307" width="59" style="1" customWidth="1"/>
+    <col min="2308" max="2560" width="9" style="1"/>
+    <col min="2561" max="2561" width="11.5" style="1" customWidth="1"/>
+    <col min="2562" max="2562" width="26.875" style="1" customWidth="1"/>
+    <col min="2563" max="2563" width="59" style="1" customWidth="1"/>
+    <col min="2564" max="2816" width="9" style="1"/>
+    <col min="2817" max="2817" width="11.5" style="1" customWidth="1"/>
+    <col min="2818" max="2818" width="26.875" style="1" customWidth="1"/>
+    <col min="2819" max="2819" width="59" style="1" customWidth="1"/>
+    <col min="2820" max="3072" width="9" style="1"/>
+    <col min="3073" max="3073" width="11.5" style="1" customWidth="1"/>
+    <col min="3074" max="3074" width="26.875" style="1" customWidth="1"/>
+    <col min="3075" max="3075" width="59" style="1" customWidth="1"/>
+    <col min="3076" max="3328" width="9" style="1"/>
+    <col min="3329" max="3329" width="11.5" style="1" customWidth="1"/>
+    <col min="3330" max="3330" width="26.875" style="1" customWidth="1"/>
+    <col min="3331" max="3331" width="59" style="1" customWidth="1"/>
+    <col min="3332" max="3584" width="9" style="1"/>
+    <col min="3585" max="3585" width="11.5" style="1" customWidth="1"/>
+    <col min="3586" max="3586" width="26.875" style="1" customWidth="1"/>
+    <col min="3587" max="3587" width="59" style="1" customWidth="1"/>
+    <col min="3588" max="3840" width="9" style="1"/>
+    <col min="3841" max="3841" width="11.5" style="1" customWidth="1"/>
+    <col min="3842" max="3842" width="26.875" style="1" customWidth="1"/>
+    <col min="3843" max="3843" width="59" style="1" customWidth="1"/>
+    <col min="3844" max="4096" width="9" style="1"/>
+    <col min="4097" max="4097" width="11.5" style="1" customWidth="1"/>
+    <col min="4098" max="4098" width="26.875" style="1" customWidth="1"/>
+    <col min="4099" max="4099" width="59" style="1" customWidth="1"/>
+    <col min="4100" max="4352" width="9" style="1"/>
+    <col min="4353" max="4353" width="11.5" style="1" customWidth="1"/>
+    <col min="4354" max="4354" width="26.875" style="1" customWidth="1"/>
+    <col min="4355" max="4355" width="59" style="1" customWidth="1"/>
+    <col min="4356" max="4608" width="9" style="1"/>
+    <col min="4609" max="4609" width="11.5" style="1" customWidth="1"/>
+    <col min="4610" max="4610" width="26.875" style="1" customWidth="1"/>
+    <col min="4611" max="4611" width="59" style="1" customWidth="1"/>
+    <col min="4612" max="4864" width="9" style="1"/>
+    <col min="4865" max="4865" width="11.5" style="1" customWidth="1"/>
+    <col min="4866" max="4866" width="26.875" style="1" customWidth="1"/>
+    <col min="4867" max="4867" width="59" style="1" customWidth="1"/>
+    <col min="4868" max="5120" width="9" style="1"/>
+    <col min="5121" max="5121" width="11.5" style="1" customWidth="1"/>
+    <col min="5122" max="5122" width="26.875" style="1" customWidth="1"/>
+    <col min="5123" max="5123" width="59" style="1" customWidth="1"/>
+    <col min="5124" max="5376" width="9" style="1"/>
+    <col min="5377" max="5377" width="11.5" style="1" customWidth="1"/>
+    <col min="5378" max="5378" width="26.875" style="1" customWidth="1"/>
+    <col min="5379" max="5379" width="59" style="1" customWidth="1"/>
+    <col min="5380" max="5632" width="9" style="1"/>
+    <col min="5633" max="5633" width="11.5" style="1" customWidth="1"/>
+    <col min="5634" max="5634" width="26.875" style="1" customWidth="1"/>
+    <col min="5635" max="5635" width="59" style="1" customWidth="1"/>
+    <col min="5636" max="5888" width="9" style="1"/>
+    <col min="5889" max="5889" width="11.5" style="1" customWidth="1"/>
+    <col min="5890" max="5890" width="26.875" style="1" customWidth="1"/>
+    <col min="5891" max="5891" width="59" style="1" customWidth="1"/>
+    <col min="5892" max="6144" width="9" style="1"/>
+    <col min="6145" max="6145" width="11.5" style="1" customWidth="1"/>
+    <col min="6146" max="6146" width="26.875" style="1" customWidth="1"/>
+    <col min="6147" max="6147" width="59" style="1" customWidth="1"/>
+    <col min="6148" max="6400" width="9" style="1"/>
+    <col min="6401" max="6401" width="11.5" style="1" customWidth="1"/>
+    <col min="6402" max="6402" width="26.875" style="1" customWidth="1"/>
+    <col min="6403" max="6403" width="59" style="1" customWidth="1"/>
+    <col min="6404" max="6656" width="9" style="1"/>
+    <col min="6657" max="6657" width="11.5" style="1" customWidth="1"/>
+    <col min="6658" max="6658" width="26.875" style="1" customWidth="1"/>
+    <col min="6659" max="6659" width="59" style="1" customWidth="1"/>
+    <col min="6660" max="6912" width="9" style="1"/>
+    <col min="6913" max="6913" width="11.5" style="1" customWidth="1"/>
+    <col min="6914" max="6914" width="26.875" style="1" customWidth="1"/>
+    <col min="6915" max="6915" width="59" style="1" customWidth="1"/>
+    <col min="6916" max="7168" width="9" style="1"/>
+    <col min="7169" max="7169" width="11.5" style="1" customWidth="1"/>
+    <col min="7170" max="7170" width="26.875" style="1" customWidth="1"/>
+    <col min="7171" max="7171" width="59" style="1" customWidth="1"/>
+    <col min="7172" max="7424" width="9" style="1"/>
+    <col min="7425" max="7425" width="11.5" style="1" customWidth="1"/>
+    <col min="7426" max="7426" width="26.875" style="1" customWidth="1"/>
+    <col min="7427" max="7427" width="59" style="1" customWidth="1"/>
+    <col min="7428" max="7680" width="9" style="1"/>
+    <col min="7681" max="7681" width="11.5" style="1" customWidth="1"/>
+    <col min="7682" max="7682" width="26.875" style="1" customWidth="1"/>
+    <col min="7683" max="7683" width="59" style="1" customWidth="1"/>
+    <col min="7684" max="7936" width="9" style="1"/>
+    <col min="7937" max="7937" width="11.5" style="1" customWidth="1"/>
+    <col min="7938" max="7938" width="26.875" style="1" customWidth="1"/>
+    <col min="7939" max="7939" width="59" style="1" customWidth="1"/>
+    <col min="7940" max="8192" width="9" style="1"/>
+    <col min="8193" max="8193" width="11.5" style="1" customWidth="1"/>
+    <col min="8194" max="8194" width="26.875" style="1" customWidth="1"/>
+    <col min="8195" max="8195" width="59" style="1" customWidth="1"/>
+    <col min="8196" max="8448" width="9" style="1"/>
+    <col min="8449" max="8449" width="11.5" style="1" customWidth="1"/>
+    <col min="8450" max="8450" width="26.875" style="1" customWidth="1"/>
+    <col min="8451" max="8451" width="59" style="1" customWidth="1"/>
+    <col min="8452" max="8704" width="9" style="1"/>
+    <col min="8705" max="8705" width="11.5" style="1" customWidth="1"/>
+    <col min="8706" max="8706" width="26.875" style="1" customWidth="1"/>
+    <col min="8707" max="8707" width="59" style="1" customWidth="1"/>
+    <col min="8708" max="8960" width="9" style="1"/>
+    <col min="8961" max="8961" width="11.5" style="1" customWidth="1"/>
+    <col min="8962" max="8962" width="26.875" style="1" customWidth="1"/>
+    <col min="8963" max="8963" width="59" style="1" customWidth="1"/>
+    <col min="8964" max="9216" width="9" style="1"/>
+    <col min="9217" max="9217" width="11.5" style="1" customWidth="1"/>
+    <col min="9218" max="9218" width="26.875" style="1" customWidth="1"/>
+    <col min="9219" max="9219" width="59" style="1" customWidth="1"/>
+    <col min="9220" max="9472" width="9" style="1"/>
+    <col min="9473" max="9473" width="11.5" style="1" customWidth="1"/>
+    <col min="9474" max="9474" width="26.875" style="1" customWidth="1"/>
+    <col min="9475" max="9475" width="59" style="1" customWidth="1"/>
+    <col min="9476" max="9728" width="9" style="1"/>
+    <col min="9729" max="9729" width="11.5" style="1" customWidth="1"/>
+    <col min="9730" max="9730" width="26.875" style="1" customWidth="1"/>
+    <col min="9731" max="9731" width="59" style="1" customWidth="1"/>
+    <col min="9732" max="9984" width="9" style="1"/>
+    <col min="9985" max="9985" width="11.5" style="1" customWidth="1"/>
+    <col min="9986" max="9986" width="26.875" style="1" customWidth="1"/>
+    <col min="9987" max="9987" width="59" style="1" customWidth="1"/>
+    <col min="9988" max="10240" width="9" style="1"/>
+    <col min="10241" max="10241" width="11.5" style="1" customWidth="1"/>
+    <col min="10242" max="10242" width="26.875" style="1" customWidth="1"/>
+    <col min="10243" max="10243" width="59" style="1" customWidth="1"/>
+    <col min="10244" max="10496" width="9" style="1"/>
+    <col min="10497" max="10497" width="11.5" style="1" customWidth="1"/>
+    <col min="10498" max="10498" width="26.875" style="1" customWidth="1"/>
+    <col min="10499" max="10499" width="59" style="1" customWidth="1"/>
+    <col min="10500" max="10752" width="9" style="1"/>
+    <col min="10753" max="10753" width="11.5" style="1" customWidth="1"/>
+    <col min="10754" max="10754" width="26.875" style="1" customWidth="1"/>
+    <col min="10755" max="10755" width="59" style="1" customWidth="1"/>
+    <col min="10756" max="11008" width="9" style="1"/>
+    <col min="11009" max="11009" width="11.5" style="1" customWidth="1"/>
+    <col min="11010" max="11010" width="26.875" style="1" customWidth="1"/>
+    <col min="11011" max="11011" width="59" style="1" customWidth="1"/>
+    <col min="11012" max="11264" width="9" style="1"/>
+    <col min="11265" max="11265" width="11.5" style="1" customWidth="1"/>
+    <col min="11266" max="11266" width="26.875" style="1" customWidth="1"/>
+    <col min="11267" max="11267" width="59" style="1" customWidth="1"/>
+    <col min="11268" max="11520" width="9" style="1"/>
+    <col min="11521" max="11521" width="11.5" style="1" customWidth="1"/>
+    <col min="11522" max="11522" width="26.875" style="1" customWidth="1"/>
+    <col min="11523" max="11523" width="59" style="1" customWidth="1"/>
+    <col min="11524" max="11776" width="9" style="1"/>
+    <col min="11777" max="11777" width="11.5" style="1" customWidth="1"/>
+    <col min="11778" max="11778" width="26.875" style="1" customWidth="1"/>
+    <col min="11779" max="11779" width="59" style="1" customWidth="1"/>
+    <col min="11780" max="12032" width="9" style="1"/>
+    <col min="12033" max="12033" width="11.5" style="1" customWidth="1"/>
+    <col min="12034" max="12034" width="26.875" style="1" customWidth="1"/>
+    <col min="12035" max="12035" width="59" style="1" customWidth="1"/>
+    <col min="12036" max="12288" width="9" style="1"/>
+    <col min="12289" max="12289" width="11.5" style="1" customWidth="1"/>
+    <col min="12290" max="12290" width="26.875" style="1" customWidth="1"/>
+    <col min="12291" max="12291" width="59" style="1" customWidth="1"/>
+    <col min="12292" max="12544" width="9" style="1"/>
+    <col min="12545" max="12545" width="11.5" style="1" customWidth="1"/>
+    <col min="12546" max="12546" width="26.875" style="1" customWidth="1"/>
+    <col min="12547" max="12547" width="59" style="1" customWidth="1"/>
+    <col min="12548" max="12800" width="9" style="1"/>
+    <col min="12801" max="12801" width="11.5" style="1" customWidth="1"/>
+    <col min="12802" max="12802" width="26.875" style="1" customWidth="1"/>
+    <col min="12803" max="12803" width="59" style="1" customWidth="1"/>
+    <col min="12804" max="13056" width="9" style="1"/>
+    <col min="13057" max="13057" width="11.5" style="1" customWidth="1"/>
+    <col min="13058" max="13058" width="26.875" style="1" customWidth="1"/>
+    <col min="13059" max="13059" width="59" style="1" customWidth="1"/>
+    <col min="13060" max="13312" width="9" style="1"/>
+    <col min="13313" max="13313" width="11.5" style="1" customWidth="1"/>
+    <col min="13314" max="13314" width="26.875" style="1" customWidth="1"/>
+    <col min="13315" max="13315" width="59" style="1" customWidth="1"/>
+    <col min="13316" max="13568" width="9" style="1"/>
+    <col min="13569" max="13569" width="11.5" style="1" customWidth="1"/>
+    <col min="13570" max="13570" width="26.875" style="1" customWidth="1"/>
+    <col min="13571" max="13571" width="59" style="1" customWidth="1"/>
+    <col min="13572" max="13824" width="9" style="1"/>
+    <col min="13825" max="13825" width="11.5" style="1" customWidth="1"/>
+    <col min="13826" max="13826" width="26.875" style="1" customWidth="1"/>
+    <col min="13827" max="13827" width="59" style="1" customWidth="1"/>
+    <col min="13828" max="14080" width="9" style="1"/>
+    <col min="14081" max="14081" width="11.5" style="1" customWidth="1"/>
+    <col min="14082" max="14082" width="26.875" style="1" customWidth="1"/>
+    <col min="14083" max="14083" width="59" style="1" customWidth="1"/>
+    <col min="14084" max="14336" width="9" style="1"/>
+    <col min="14337" max="14337" width="11.5" style="1" customWidth="1"/>
+    <col min="14338" max="14338" width="26.875" style="1" customWidth="1"/>
+    <col min="14339" max="14339" width="59" style="1" customWidth="1"/>
+    <col min="14340" max="14592" width="9" style="1"/>
+    <col min="14593" max="14593" width="11.5" style="1" customWidth="1"/>
+    <col min="14594" max="14594" width="26.875" style="1" customWidth="1"/>
+    <col min="14595" max="14595" width="59" style="1" customWidth="1"/>
+    <col min="14596" max="14848" width="9" style="1"/>
+    <col min="14849" max="14849" width="11.5" style="1" customWidth="1"/>
+    <col min="14850" max="14850" width="26.875" style="1" customWidth="1"/>
+    <col min="14851" max="14851" width="59" style="1" customWidth="1"/>
+    <col min="14852" max="15104" width="9" style="1"/>
+    <col min="15105" max="15105" width="11.5" style="1" customWidth="1"/>
+    <col min="15106" max="15106" width="26.875" style="1" customWidth="1"/>
+    <col min="15107" max="15107" width="59" style="1" customWidth="1"/>
+    <col min="15108" max="15360" width="9" style="1"/>
+    <col min="15361" max="15361" width="11.5" style="1" customWidth="1"/>
+    <col min="15362" max="15362" width="26.875" style="1" customWidth="1"/>
+    <col min="15363" max="15363" width="59" style="1" customWidth="1"/>
+    <col min="15364" max="15616" width="9" style="1"/>
+    <col min="15617" max="15617" width="11.5" style="1" customWidth="1"/>
+    <col min="15618" max="15618" width="26.875" style="1" customWidth="1"/>
+    <col min="15619" max="15619" width="59" style="1" customWidth="1"/>
+    <col min="15620" max="15872" width="9" style="1"/>
+    <col min="15873" max="15873" width="11.5" style="1" customWidth="1"/>
+    <col min="15874" max="15874" width="26.875" style="1" customWidth="1"/>
+    <col min="15875" max="15875" width="59" style="1" customWidth="1"/>
+    <col min="15876" max="16128" width="9" style="1"/>
+    <col min="16129" max="16129" width="11.5" style="1" customWidth="1"/>
+    <col min="16130" max="16130" width="26.875" style="1" customWidth="1"/>
+    <col min="16131" max="16131" width="59" style="1" customWidth="1"/>
+    <col min="16132" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>42145</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>42185</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>42194</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="A6" s="8">
+        <v>42320</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
